--- a/biology/Botanique/Pyttipanna/Pyttipanna.xlsx
+++ b/biology/Botanique/Pyttipanna/Pyttipanna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le pyttipanna — nom suédois encore écrit pytt i panna —, également appelé pyttipanne (ou pytt-i-panne) en norvégien, et pyttipannu en finnois, est un plat populaire en Scandinavie et en Finlande, à base de pommes de terre, d’oignons et de viande, coupés en dés et sautés, souvent servi avec un œuf au plat, une salade de betteraves, des cornichons au vinaigre et des câpres.
@@ -513,7 +525,9 @@
           <t>Plats similaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bubble and squeak, Angleterre
